--- a/biology/Médecine/Veine_profonde/Veine_profonde.xlsx
+++ b/biology/Médecine/Veine_profonde/Veine_profonde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une veine profonde est une veine qui est profonde dans le corps. Cela contraste des veines superficielles qui sont proches de la surface du corps.
 Les veines profondes sont presque toujours à côté d'une artère du même nom (par exemple, la veine fémorale est à côté de l'artère fémorale ). Collectivement, elles transportent la grande majorité du sang. L'occlusion d'une veine profonde peut mettre la vie en danger et est le plus souvent causée par une thrombose. L'occlusion d'une veine profonde par thrombose est appelée thrombose veineuse profonde.
@@ -513,16 +525,86 @@
           <t>Liste</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Veine jugulaire interne
-Membre supérieur
-Veine brachiale
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Veine jugulaire interne</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Veine_profonde</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Veine_profonde</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Membre supérieur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Veine brachiale
 Veine axillaire
-Veine sous-clavière
-Membre inférieur
-Veine fémorale commune
-Veine fémorale [1]
+Veine sous-clavière</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Veine_profonde</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Veine_profonde</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Membre inférieur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Veine fémorale commune
+Veine fémorale 
 Veine fémorale profonde
 Veine poplitée
 Veine fibulaire
